--- a/public/informes/1727/1727_0_0/1727_0_0 2021-09-30.xlsx
+++ b/public/informes/1727/1727_0_0/1727_0_0 2021-09-30.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>DENOMINACIÓ</t>
   </si>
@@ -65,28 +65,16 @@
     <t>TARRO 50cc BASE REDONDA</t>
   </si>
   <si>
-    <t>24/09/2021 Taller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planificacio: 1727/0/1 i s’haurà de canviar la versió a la 1727/0/0 </t>
-  </si>
-  <si>
-    <t>24/09/2021 De Taller a Injeccion</t>
-  </si>
-  <si>
     <t>Comprobar C/C, desmontar placa portavasos, limpiar y quitar golpes, cambiar vasos y culotes cambiando las juntas toricas, comprobar refrigeracion, ok.- montar placa portavasos. Desmontar placa expulsora, cambiar todas las correderas, ajustar bolas de posicionmamiento corredera 4, engrasar guias. desmontar placas portapunzones, cambiar punzones, montar y comprobar refrigeracion, ok.- proteger figuras y cerrar molde.</t>
   </si>
   <si>
-    <t>Injeccio: fuga de agua en R.B. y R.D.</t>
-  </si>
-  <si>
-    <t>30/09/2021 Taller procedente de Injeccio (solo parte fija)</t>
-  </si>
-  <si>
     <t>Desmontar placa portavasos y desmontar los dos vasos que fugan.- las juntas toricas se ven bien, el asiento de estas en la placa, esta algo deteriorado, osc.- coloco juntas nuevas y le añado un poco de pasta para juntas, monto vasos y placa portavasos y compruebo a presion/ tiempo, ok.</t>
   </si>
   <si>
-    <t>30/09/2021 de  Taller a Injeccio</t>
+    <t xml:space="preserve">V 0/0 - Planificacio: 1727/0/1 i s’haurà de canviar la versió a la 1727/0/0 </t>
+  </si>
+  <si>
+    <t>V 0/0 - Injeccio: fuga de agua en R.B. y R.D.</t>
   </si>
 </sst>
 </file>
@@ -239,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -298,13 +286,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -326,9 +314,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -368,7 +353,7 @@
         <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -670,8 +655,8 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,34 +729,34 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21">
+        <v>44463</v>
+      </c>
+      <c r="B6" s="21">
+        <v>44463</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>15</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>16</v>
+      <c r="A7" s="14">
+        <v>44469</v>
+      </c>
+      <c r="B7" s="14">
+        <v>44469</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="7"/>
